--- a/VENTAS.xlsx
+++ b/VENTAS.xlsx
@@ -393,14 +393,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="D1">
-        <f>B1*C1</f>
-        <v/>
+      <c r="D1" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -408,13 +407,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>5250</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/VENTAS.xlsx
+++ b/VENTAS.xlsx
@@ -393,13 +393,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D1" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="2" spans="1:4">
